--- a/src/main/resources/markets.xlsx
+++ b/src/main/resources/markets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -34,6 +34,12 @@
     <t>lifeExpectancy</t>
   </si>
   <si>
+    <t>costToEnterMarket</t>
+  </si>
+  <si>
+    <t>requiredSalesforce</t>
+  </si>
+  <si>
     <t>ageTo14Male</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>USD 17110000000</t>
   </si>
   <si>
+    <t>CHF 1000000</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>USD 12010000000</t>
   </si>
   <si>
+    <t>CHF 10000000</t>
+  </si>
+  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -91,6 +103,9 @@
     <t>USD 679000000</t>
   </si>
   <si>
+    <t>CHF 100000</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
@@ -115,6 +130,9 @@
     <t>USD 376400000</t>
   </si>
   <si>
+    <t>CHF 1000</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
@@ -124,6 +142,9 @@
     <t>USD 2602000000</t>
   </si>
   <si>
+    <t>CHF 5000000</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -149,6 +170,9 @@
   </si>
   <si>
     <t>USD 417400000</t>
+  </si>
+  <si>
+    <t>CHF 50000</t>
   </si>
   <si>
     <t>United Kingdom</t>
@@ -219,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -292,6 +316,21 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -338,7 +377,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -372,28 +411,34 @@
     <xf numFmtId="60" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -555,13 +600,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -650,19 +689,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -908,13 +947,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1207,19 +1240,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1464,30 +1497,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.8333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6719" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.8516" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="16.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8516" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6719" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.3516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.8516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.8516" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="16.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1542,16 +1575,22 @@
       <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7">
         <v>0.023</v>
@@ -1565,564 +1604,630 @@
       <c r="G2" s="10">
         <v>80.7</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8">
+        <v>23890</v>
+      </c>
+      <c r="J2" s="8">
         <v>40905648</v>
       </c>
-      <c r="I2" s="8">
+      <c r="K2" s="8">
         <v>38860151</v>
       </c>
-      <c r="J2" s="8">
+      <c r="L2" s="8">
         <v>28085190</v>
       </c>
-      <c r="K2" s="8">
+      <c r="M2" s="8">
         <v>26851677</v>
       </c>
-      <c r="L2" s="8">
+      <c r="N2" s="8">
         <v>107404085</v>
       </c>
-      <c r="M2" s="8">
+      <c r="O2" s="8">
         <v>105480809</v>
       </c>
-      <c r="N2" s="8">
+      <c r="P2" s="8">
         <v>33083278</v>
       </c>
-      <c r="O2" s="8">
+      <c r="Q2" s="8">
         <v>34885100</v>
       </c>
-      <c r="P2" s="8">
+      <c r="R2" s="8">
         <v>43673572</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="S2" s="8">
         <v>57881819</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="A3" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
         <v>0.06900000000000001</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>806700000</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="17">
         <v>0.04</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="18">
         <v>75.8</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="I3" s="16">
+        <v>80670</v>
+      </c>
+      <c r="J3" s="16">
         <v>128270371</v>
       </c>
-      <c r="I3" s="15">
+      <c r="K3" s="16">
         <v>110120535</v>
       </c>
-      <c r="J3" s="15">
+      <c r="L3" s="16">
         <v>91443139</v>
       </c>
-      <c r="K3" s="15">
+      <c r="M3" s="16">
         <v>79181726</v>
       </c>
-      <c r="L3" s="15">
+      <c r="N3" s="16">
         <v>338189015</v>
       </c>
-      <c r="M3" s="15">
+      <c r="O3" s="16">
         <v>324180103</v>
       </c>
-      <c r="N3" s="15">
+      <c r="P3" s="16">
         <v>79340391</v>
       </c>
-      <c r="O3" s="15">
+      <c r="Q3" s="16">
         <v>77857806</v>
       </c>
-      <c r="P3" s="15">
+      <c r="R3" s="16">
         <v>74277631</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="S3" s="16">
         <v>81828269</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="A4" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="D4" s="15">
         <v>0.017</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="16">
         <v>5159000</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <v>0.032</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="18">
         <v>82.7</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="I4" s="16">
+        <v>515</v>
+      </c>
+      <c r="J4" s="16">
         <v>650151</v>
       </c>
-      <c r="I4" s="15">
+      <c r="K4" s="16">
         <v>612479</v>
       </c>
-      <c r="J4" s="15">
+      <c r="L4" s="16">
         <v>453003</v>
       </c>
-      <c r="K4" s="15">
+      <c r="M4" s="16">
         <v>433101</v>
       </c>
-      <c r="L4" s="15">
+      <c r="N4" s="16">
         <v>1781425</v>
       </c>
-      <c r="M4" s="15">
+      <c r="O4" s="16">
         <v>1774124</v>
       </c>
-      <c r="N4" s="15">
+      <c r="P4" s="16">
         <v>535457</v>
       </c>
-      <c r="O4" s="15">
+      <c r="Q4" s="16">
         <v>532454</v>
       </c>
-      <c r="P4" s="15">
+      <c r="R4" s="16">
         <v>672024</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="S4" s="16">
         <v>848591</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="A5" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="D5" s="15">
         <v>0.022</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>160400000</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="17">
         <v>0.044</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="18">
         <v>80.09999999999999</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="I5" s="16">
+        <v>16040</v>
+      </c>
+      <c r="J5" s="16">
         <v>31329121</v>
       </c>
-      <c r="I5" s="15">
+      <c r="K5" s="16">
         <v>29984705</v>
       </c>
-      <c r="J5" s="15">
+      <c r="L5" s="16">
         <v>22119340</v>
       </c>
-      <c r="K5" s="15">
+      <c r="M5" s="16">
         <v>21082599</v>
       </c>
-      <c r="L5" s="15">
+      <c r="N5" s="16">
         <v>64858646</v>
       </c>
-      <c r="M5" s="15">
+      <c r="O5" s="16">
         <v>64496889</v>
       </c>
-      <c r="N5" s="15">
+      <c r="P5" s="16">
         <v>20578432</v>
       </c>
-      <c r="O5" s="15">
+      <c r="Q5" s="16">
         <v>22040267</v>
       </c>
-      <c r="P5" s="15">
+      <c r="R5" s="16">
         <v>23489515</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="S5" s="16">
         <v>29276951</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="A6" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s" s="14">
+        <v>35</v>
+      </c>
+      <c r="D6" s="15">
         <v>0.017</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="16">
         <v>65010000</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="17">
         <v>0.029</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="18">
         <v>85.5</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="I6" s="16">
+        <v>6501</v>
+      </c>
+      <c r="J6" s="16">
         <v>8251336</v>
       </c>
-      <c r="I6" s="15">
+      <c r="K6" s="16">
         <v>7787234</v>
       </c>
-      <c r="J6" s="15">
+      <c r="L6" s="16">
         <v>6397995</v>
       </c>
-      <c r="K6" s="15">
+      <c r="M6" s="16">
         <v>5746140</v>
       </c>
-      <c r="L6" s="15">
+      <c r="N6" s="16">
         <v>23246562</v>
       </c>
-      <c r="M6" s="15">
+      <c r="O6" s="16">
         <v>23784273</v>
       </c>
-      <c r="N6" s="15">
+      <c r="P6" s="16">
         <v>7588597</v>
       </c>
-      <c r="O6" s="15">
+      <c r="Q6" s="16">
         <v>7563245</v>
       </c>
-      <c r="P6" s="15">
+      <c r="R6" s="16">
         <v>15655860</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="S6" s="16">
         <v>20146914</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="A7" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="D7" s="15">
         <v>0.008</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>60080000</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>0.165</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="18">
         <v>59.3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="I7" s="16">
+        <v>6008</v>
+      </c>
+      <c r="J7" s="16">
         <v>44087799</v>
       </c>
-      <c r="I7" s="15">
+      <c r="K7" s="16">
         <v>42278742</v>
       </c>
-      <c r="J7" s="15">
+      <c r="L7" s="16">
         <v>20452045</v>
       </c>
-      <c r="K7" s="15">
+      <c r="M7" s="16">
         <v>19861371</v>
       </c>
-      <c r="L7" s="15">
+      <c r="N7" s="16">
         <v>31031253</v>
       </c>
-      <c r="M7" s="15">
+      <c r="O7" s="16">
         <v>30893168</v>
       </c>
-      <c r="N7" s="15">
+      <c r="P7" s="16">
         <v>4017658</v>
       </c>
-      <c r="O7" s="15">
+      <c r="Q7" s="16">
         <v>4197739</v>
       </c>
-      <c r="P7" s="15">
+      <c r="R7" s="16">
         <v>3138206</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="S7" s="16">
         <v>3494524</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="A8" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="D8" s="15">
         <v>0.067</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="16">
         <v>521900000</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="17">
         <v>0.08500000000000001</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="19">
         <v>69.09999999999999</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="I8" s="16">
+        <v>52190</v>
+      </c>
+      <c r="J8" s="16">
         <v>185736879</v>
       </c>
-      <c r="I8" s="15">
+      <c r="K8" s="16">
         <v>164194080</v>
       </c>
-      <c r="J8" s="15">
+      <c r="L8" s="16">
         <v>122573662</v>
       </c>
-      <c r="K8" s="15">
+      <c r="M8" s="16">
         <v>108109968</v>
       </c>
-      <c r="L8" s="15">
+      <c r="N8" s="16">
         <v>276283581</v>
       </c>
-      <c r="M8" s="15">
+      <c r="O8" s="16">
         <v>258563835</v>
       </c>
-      <c r="N8" s="15">
+      <c r="P8" s="16">
         <v>49334703</v>
       </c>
-      <c r="O8" s="15">
+      <c r="Q8" s="16">
         <v>49197817</v>
       </c>
-      <c r="P8" s="15">
+      <c r="R8" s="16">
         <v>39184523</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="S8" s="16">
         <v>43654994</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="A9" t="s" s="12">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="14">
+        <v>46</v>
+      </c>
+      <c r="D9" s="15">
         <v>0.025</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16">
         <v>45900000</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="17">
         <v>0.038</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="19">
         <v>80.90000000000001</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="I9" s="16">
+        <v>4590</v>
+      </c>
+      <c r="J9" s="16">
         <v>5299798</v>
       </c>
-      <c r="I9" s="15">
+      <c r="K9" s="16">
         <v>5024184</v>
       </c>
-      <c r="J9" s="15">
+      <c r="L9" s="16">
         <v>4092901</v>
       </c>
-      <c r="K9" s="15">
+      <c r="M9" s="16">
         <v>3933997</v>
       </c>
-      <c r="L9" s="15">
+      <c r="N9" s="16">
         <v>16181931</v>
       </c>
-      <c r="M9" s="15">
+      <c r="O9" s="16">
         <v>15896528</v>
       </c>
-      <c r="N9" s="15">
+      <c r="P9" s="16">
         <v>5989111</v>
       </c>
-      <c r="O9" s="15">
+      <c r="Q9" s="16">
         <v>6047449</v>
       </c>
-      <c r="P9" s="15">
+      <c r="R9" s="16">
         <v>7930590</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="S9" s="16">
         <v>10061248</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s" s="13">
-        <v>42</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="A10" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="D10" s="15">
         <v>0.023</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16">
         <v>30680000</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="17">
         <v>0.094</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="19">
         <v>82</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="I10" s="16">
+        <v>3068</v>
+      </c>
+      <c r="J10" s="16">
         <v>6366789</v>
       </c>
-      <c r="I10" s="15">
+      <c r="K10" s="16">
         <v>6082729</v>
       </c>
-      <c r="J10" s="15">
+      <c r="L10" s="16">
         <v>4065780</v>
       </c>
-      <c r="K10" s="15">
+      <c r="M10" s="16">
         <v>3884488</v>
       </c>
-      <c r="L10" s="15">
+      <c r="N10" s="16">
         <v>12731825</v>
       </c>
-      <c r="M10" s="15">
+      <c r="O10" s="16">
         <v>12515501</v>
       </c>
-      <c r="N10" s="15">
+      <c r="P10" s="16">
         <v>4035073</v>
       </c>
-      <c r="O10" s="15">
+      <c r="Q10" s="16">
         <v>4331751</v>
       </c>
-      <c r="P10" s="15">
+      <c r="R10" s="16">
         <v>5781410</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="S10" s="16">
         <v>7569011</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s" s="12">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s" s="13">
-        <v>45</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="A11" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s" s="13">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="D11" s="15">
         <v>0.03</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <v>4260000</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="17">
         <v>0.055</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="19">
         <v>81.7</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="I11" s="16">
+        <v>4260</v>
+      </c>
+      <c r="J11" s="16">
         <v>630739</v>
       </c>
-      <c r="I11" s="15">
+      <c r="K11" s="16">
         <v>600663</v>
       </c>
-      <c r="J11" s="15">
+      <c r="L11" s="16">
         <v>484515</v>
       </c>
-      <c r="K11" s="15">
+      <c r="M11" s="16">
         <v>467064</v>
       </c>
-      <c r="L11" s="15">
+      <c r="N11" s="16">
         <v>1851209</v>
       </c>
-      <c r="M11" s="15">
+      <c r="O11" s="16">
         <v>1851100</v>
       </c>
-      <c r="N11" s="15">
+      <c r="P11" s="16">
         <v>595146</v>
       </c>
-      <c r="O11" s="15">
+      <c r="Q11" s="16">
         <v>603249</v>
       </c>
-      <c r="P11" s="15">
+      <c r="R11" s="16">
         <v>743174</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="S11" s="16">
         <v>966511</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s" s="12">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s" s="13">
-        <v>48</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="A12" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s" s="13">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D12" s="15">
         <v>0.017</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <v>33500000</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="17">
         <v>0.044</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="19">
         <v>80.90000000000001</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="I12" s="16">
+        <v>3350</v>
+      </c>
+      <c r="J12" s="16">
         <v>5871268</v>
       </c>
-      <c r="I12" s="15">
+      <c r="K12" s="16">
         <v>5582107</v>
       </c>
-      <c r="J12" s="15">
+      <c r="L12" s="16">
         <v>3895850</v>
       </c>
-      <c r="K12" s="15">
+      <c r="M12" s="16">
         <v>3726311</v>
       </c>
-      <c r="L12" s="15">
+      <c r="N12" s="16">
         <v>13387119</v>
       </c>
-      <c r="M12" s="15">
+      <c r="O12" s="16">
         <v>12843549</v>
       </c>
-      <c r="N12" s="15">
+      <c r="P12" s="16">
         <v>3936466</v>
       </c>
-      <c r="O12" s="15">
+      <c r="Q12" s="16">
         <v>4022245</v>
       </c>
-      <c r="P12" s="15">
+      <c r="R12" s="16">
         <v>5321392</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="S12" s="16">
         <v>6518939</v>
       </c>
     </row>

--- a/src/main/resources/markets.xlsx
+++ b/src/main/resources/markets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -37,7 +37,7 @@
     <t>costToEnterMarket</t>
   </si>
   <si>
-    <t>requiredSalesforce</t>
+    <t>distributionCost</t>
   </si>
   <si>
     <t>ageTo14Male</t>
@@ -82,6 +82,9 @@
     <t>CHF 1000000</t>
   </si>
   <si>
+    <t>CHF 5000000</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>CHF 10000000</t>
   </si>
   <si>
+    <t>CHF 50000000</t>
+  </si>
+  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -106,12 +112,18 @@
     <t>CHF 100000</t>
   </si>
   <si>
+    <t>CHF 500000</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
     <t>USD 19490000000</t>
   </si>
   <si>
+    <t>CHF 20000000</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -121,6 +133,9 @@
     <t>USD 4873000000</t>
   </si>
   <si>
+    <t>CHF 8000000</t>
+  </si>
+  <si>
     <t>Nigeria</t>
   </si>
   <si>
@@ -142,7 +157,7 @@
     <t>USD 2602000000</t>
   </si>
   <si>
-    <t>CHF 5000000</t>
+    <t>CHF 40000000</t>
   </si>
   <si>
     <t>Germany</t>
@@ -163,6 +178,9 @@
     <t>USD 2588000000</t>
   </si>
   <si>
+    <t>CHF 15000000</t>
+  </si>
+  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -173,6 +191,9 @@
   </si>
   <si>
     <t>CHF 50000</t>
+  </si>
+  <si>
+    <t>CHF 2000000</t>
   </si>
   <si>
     <t>United Kingdom</t>
@@ -377,7 +398,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -414,6 +435,9 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -435,10 +459,10 @@
     <xf numFmtId="60" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1607,8 +1631,8 @@
       <c r="H2" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="I2" s="8">
-        <v>23890</v>
+      <c r="I2" t="s" s="12">
+        <v>23</v>
       </c>
       <c r="J2" s="8">
         <v>40905648</v>
@@ -1642,592 +1666,592 @@
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s" s="13">
+      <c r="A3" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="C3" t="s" s="14">
+      <c r="B3" t="s" s="14">
         <v>25</v>
       </c>
-      <c r="D3" s="15">
+      <c r="C3" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="D3" s="16">
         <v>0.06900000000000001</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="17">
         <v>806700000</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="18">
         <v>0.04</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="19">
         <v>75.8</v>
       </c>
       <c r="H3" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="I3" s="16">
-        <v>80670</v>
-      </c>
-      <c r="J3" s="16">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s" s="20">
+        <v>28</v>
+      </c>
+      <c r="J3" s="17">
         <v>128270371</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="17">
         <v>110120535</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="17">
         <v>91443139</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="17">
         <v>79181726</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="17">
         <v>338189015</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="17">
         <v>324180103</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="17">
         <v>79340391</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="17">
         <v>77857806</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="17">
         <v>74277631</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="17">
         <v>81828269</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s" s="13">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="14">
+      <c r="A4" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D4" s="15">
+      <c r="B4" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="D4" s="16">
         <v>0.017</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>5159000</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <v>0.032</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="19">
         <v>82.7</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="I4" s="16">
-        <v>515</v>
-      </c>
-      <c r="J4" s="16">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="J4" s="17">
         <v>650151</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="17">
         <v>612479</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="17">
         <v>453003</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="17">
         <v>433101</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="17">
         <v>1781425</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="17">
         <v>1774124</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="17">
         <v>535457</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="17">
         <v>532454</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="17">
         <v>672024</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="17">
         <v>848591</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s" s="14">
-        <v>32</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="A5" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="D5" s="16">
         <v>0.022</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>160400000</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="18">
         <v>0.044</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="19">
         <v>80.09999999999999</v>
       </c>
       <c r="H5" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="I5" s="16">
-        <v>16040</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="I5" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="J5" s="17">
         <v>31329121</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="17">
         <v>29984705</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="17">
         <v>22119340</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="17">
         <v>21082599</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="17">
         <v>64858646</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="17">
         <v>64496889</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="17">
         <v>20578432</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="17">
         <v>22040267</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="17">
         <v>23489515</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="17">
         <v>29276951</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="13">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="A6" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="D6" s="16">
         <v>0.017</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>65010000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="18">
         <v>0.029</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="19">
         <v>85.5</v>
       </c>
       <c r="H6" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="I6" s="16">
-        <v>6501</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="I6" t="s" s="20">
+        <v>40</v>
+      </c>
+      <c r="J6" s="17">
         <v>8251336</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="17">
         <v>7787234</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="17">
         <v>6397995</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="17">
         <v>5746140</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="17">
         <v>23246562</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="17">
         <v>23784273</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="17">
         <v>7588597</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="17">
         <v>7563245</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="17">
         <v>15655860</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="17">
         <v>20146914</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s" s="13">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="A7" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s" s="15">
+        <v>43</v>
+      </c>
+      <c r="D7" s="16">
         <v>0.008</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <v>60080000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="18">
         <v>0.165</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="19">
         <v>59.3</v>
       </c>
       <c r="H7" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="I7" s="16">
-        <v>6008</v>
-      </c>
-      <c r="J7" s="16">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="J7" s="17">
         <v>44087799</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="17">
         <v>42278742</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="17">
         <v>20452045</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="17">
         <v>19861371</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="17">
         <v>31031253</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="17">
         <v>30893168</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="17">
         <v>4017658</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="17">
         <v>4197739</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="17">
         <v>3138206</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="17">
         <v>3494524</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="A8" t="s" s="13">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="14">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s" s="15">
+        <v>47</v>
+      </c>
+      <c r="D8" s="16">
         <v>0.067</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="17">
         <v>521900000</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="18">
         <v>0.08500000000000001</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="21">
         <v>69.09999999999999</v>
       </c>
       <c r="H8" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="I8" s="16">
-        <v>52190</v>
-      </c>
-      <c r="J8" s="16">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s" s="20">
+        <v>48</v>
+      </c>
+      <c r="J8" s="17">
         <v>185736879</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="17">
         <v>164194080</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="17">
         <v>122573662</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="17">
         <v>108109968</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="17">
         <v>276283581</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="17">
         <v>258563835</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="17">
         <v>49334703</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="17">
         <v>49197817</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="17">
         <v>39184523</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="17">
         <v>43654994</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="12">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s" s="13">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s" s="14">
-        <v>46</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="A9" t="s" s="13">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s" s="14">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s" s="15">
+        <v>51</v>
+      </c>
+      <c r="D9" s="16">
         <v>0.025</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="17">
         <v>45900000</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="18">
         <v>0.038</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="21">
         <v>80.90000000000001</v>
       </c>
       <c r="H9" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="I9" s="16">
-        <v>4590</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="I9" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="J9" s="17">
         <v>5299798</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="17">
         <v>5024184</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="17">
         <v>4092901</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="17">
         <v>3933997</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="17">
         <v>16181931</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="17">
         <v>15896528</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="17">
         <v>5989111</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="17">
         <v>6047449</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="17">
         <v>7930590</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="17">
         <v>10061248</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s" s="13">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s" s="14">
-        <v>49</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="A10" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s" s="15">
+        <v>54</v>
+      </c>
+      <c r="D10" s="16">
         <v>0.023</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="17">
         <v>30680000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="18">
         <v>0.094</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="21">
         <v>82</v>
       </c>
       <c r="H10" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="I10" s="16">
-        <v>3068</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="I10" t="s" s="20">
+        <v>55</v>
+      </c>
+      <c r="J10" s="17">
         <v>6366789</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="17">
         <v>6082729</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="17">
         <v>4065780</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="17">
         <v>3884488</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="17">
         <v>12731825</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="17">
         <v>12515501</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="17">
         <v>4035073</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="17">
         <v>4331751</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="17">
         <v>5781410</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="17">
         <v>7569011</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s" s="13">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="A11" t="s" s="13">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="D11" s="16">
         <v>0.03</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="17">
         <v>4260000</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="18">
         <v>0.055</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="21">
         <v>81.7</v>
       </c>
       <c r="H11" t="s" s="11">
-        <v>53</v>
-      </c>
-      <c r="I11" s="16">
-        <v>4260</v>
-      </c>
-      <c r="J11" s="16">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="J11" s="17">
         <v>630739</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="17">
         <v>600663</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="17">
         <v>484515</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="17">
         <v>467064</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="17">
         <v>1851209</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="17">
         <v>1851100</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="17">
         <v>595146</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="17">
         <v>603249</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="17">
         <v>743174</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="17">
         <v>966511</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s" s="13">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s" s="14">
-        <v>56</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="A12" t="s" s="13">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s" s="15">
+        <v>63</v>
+      </c>
+      <c r="D12" s="16">
         <v>0.017</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="17">
         <v>33500000</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="18">
         <v>0.044</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="21">
         <v>80.90000000000001</v>
       </c>
-      <c r="H12" t="s" s="20">
+      <c r="H12" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="I12" s="16">
-        <v>3350</v>
-      </c>
-      <c r="J12" s="16">
+      <c r="I12" t="s" s="20">
+        <v>27</v>
+      </c>
+      <c r="J12" s="17">
         <v>5871268</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="17">
         <v>5582107</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="17">
         <v>3895850</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="17">
         <v>3726311</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="17">
         <v>13387119</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="17">
         <v>12843549</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="17">
         <v>3936466</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="17">
         <v>4022245</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="17">
         <v>5321392</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="17">
         <v>6518939</v>
       </c>
     </row>
